--- a/SPDZ-ECDSA多次结果.xlsx
+++ b/SPDZ-ECDSA多次结果.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12468\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12468\Documents\PyECC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4869E0D-44F1-46C3-810F-0949E6E5801C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC13B055-1509-40EB-B0FF-58421D7ED1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{A817A553-4E18-4835-84C9-F1FD98D985B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A817A553-4E18-4835-84C9-F1FD98D985B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t>次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,21 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>求和</t>
-  </si>
-  <si>
-    <t>平均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>并行效率提升(SPDZ)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,12 +65,28 @@
     <t>sacrifice(并行）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>IKNP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALSZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NNOB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +103,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -129,11 +142,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -419,7 +435,7 @@
                   <c:v>0.92649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2999000000000001</c:v>
+                  <c:v>1.8846000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4.0804999999999998</c:v>
@@ -1785,16 +1801,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB88D40C-348A-4A0D-9B62-5F144A368DD7}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
     <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="18.875" customWidth="1"/>
     <col min="7" max="7" width="25.125" customWidth="1"/>
@@ -1802,7 +1818,7 @@
     <col min="9" max="9" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1819,19 +1835,19 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1863,8 +1879,16 @@
         <f>D2/E2-1</f>
         <v>0.16507599858607303</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <f>D2/A2</f>
+        <v>3.2960000000000003E-2</v>
+      </c>
+      <c r="K2">
+        <f>E2/A2</f>
+        <v>2.8289999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1896,8 +1920,16 @@
         <f t="shared" ref="I3:I10" si="2">D3/E3-1</f>
         <v>0.22625804010594042</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <f t="shared" ref="J3:J10" si="3">D3/A3</f>
+        <v>3.2410000000000001E-2</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K10" si="4">E3/A3</f>
+        <v>2.6429999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1914,7 +1946,7 @@
         <v>0.1057</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F3:F10" si="3">1-E4/C4</f>
+        <f t="shared" ref="F4:F10" si="5">1-E4/C4</f>
         <v>5.371530886302589E-2</v>
       </c>
       <c r="G4">
@@ -1929,8 +1961,16 @@
         <f t="shared" si="2"/>
         <v>0.19772942289498574</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>3.1649999999999998E-2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="4"/>
+        <v>2.6425000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1947,7 +1987,7 @@
         <v>0.22140000000000001</v>
       </c>
       <c r="F5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.5956885173779143E-2</v>
       </c>
       <c r="G5">
@@ -1962,8 +2002,16 @@
         <f t="shared" si="2"/>
         <v>0.21183378500451666</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>3.3537499999999998E-2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>2.7675000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>16</v>
       </c>
@@ -1980,7 +2028,7 @@
         <v>0.4229</v>
       </c>
       <c r="F6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.6234163390126675E-2</v>
       </c>
       <c r="G6">
@@ -1995,8 +2043,16 @@
         <f t="shared" si="2"/>
         <v>0.19791912981792392</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>3.1662500000000003E-2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>2.643125E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>32</v>
       </c>
@@ -2013,7 +2069,7 @@
         <v>0.8397</v>
       </c>
       <c r="F7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.3685914732865583E-2</v>
       </c>
       <c r="G7">
@@ -2028,8 +2084,16 @@
         <f t="shared" si="2"/>
         <v>0.20781231392163857</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>3.169375E-2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>2.6240625E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>64</v>
       </c>
@@ -2037,7 +2101,7 @@
         <v>2.5171999999999999</v>
       </c>
       <c r="C8">
-        <v>2.2999000000000001</v>
+        <v>1.8846000000000001</v>
       </c>
       <c r="D8">
         <v>2.0045999999999999</v>
@@ -2046,8 +2110,8 @@
         <v>1.6825000000000001</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="3"/>
-        <v>0.26844645419366053</v>
+        <f t="shared" si="5"/>
+        <v>0.10723761010293953</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
@@ -2055,14 +2119,22 @@
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>9.4482368798643357E-2</v>
+        <v>0.33566804626976543</v>
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
         <v>0.19144130757800881</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>3.1321874999999999E-2</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>2.6289062500000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>128</v>
       </c>
@@ -2079,7 +2151,7 @@
         <v>3.3948999999999998</v>
       </c>
       <c r="F9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.16801862516848431</v>
       </c>
       <c r="G9">
@@ -2094,8 +2166,16 @@
         <f t="shared" si="2"/>
         <v>0.20209726354237256</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>3.1882812500000003E-2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>2.6522656249999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>256</v>
       </c>
@@ -2112,7 +2192,7 @@
         <v>7.2176</v>
       </c>
       <c r="F10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.13526465866340787</v>
       </c>
       <c r="G10">
@@ -2126,6 +2206,14 @@
       <c r="I10">
         <f t="shared" si="2"/>
         <v>0.20327671248060297</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>3.3924882812500001E-2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>2.819375E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2134,4 +2222,1098 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6550EE7B-CF1F-44EA-AF47-8FA0E6E2F2B8}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>47</v>
+      </c>
+      <c r="C2">
+        <v>418.39800000000002</v>
+      </c>
+      <c r="D2">
+        <v>63.6</v>
+      </c>
+      <c r="E2">
+        <v>62.12</v>
+      </c>
+      <c r="F2">
+        <f>B2/1000</f>
+        <v>4.7E-2</v>
+      </c>
+      <c r="G2">
+        <f>C2/1000</f>
+        <v>0.41839800000000005</v>
+      </c>
+      <c r="H2">
+        <f>D2/1000</f>
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="I2">
+        <f>E2/1000</f>
+        <v>6.2119999999999995E-2</v>
+      </c>
+      <c r="J2">
+        <f>B2/A2</f>
+        <v>47</v>
+      </c>
+      <c r="K2">
+        <f>C2/A2</f>
+        <v>418.39800000000002</v>
+      </c>
+      <c r="L2">
+        <f>E2/A2</f>
+        <v>62.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>107.45099999999999</v>
+      </c>
+      <c r="C3">
+        <v>464.31</v>
+      </c>
+      <c r="D3">
+        <v>127.44</v>
+      </c>
+      <c r="E3">
+        <v>120.38200000000001</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F10" si="0">B3/1000</f>
+        <v>0.10745099999999999</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G10" si="1">C3/1000</f>
+        <v>0.46431</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H10" si="2">D3/1000</f>
+        <v>0.12744</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I10" si="3">E3/1000</f>
+        <v>0.120382</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J10" si="4">B3/A3</f>
+        <v>53.725499999999997</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K10" si="5">C3/A3</f>
+        <v>232.155</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L10" si="6">E3/A3</f>
+        <v>60.191000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>197.261</v>
+      </c>
+      <c r="C4">
+        <v>536.77800000000002</v>
+      </c>
+      <c r="D4">
+        <v>213.33699999999999</v>
+      </c>
+      <c r="E4">
+        <v>268.60899999999998</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.19726099999999999</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.53677799999999998</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0.213337</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>0.26860899999999999</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>49.315249999999999</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>134.19450000000001</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="6"/>
+        <v>67.152249999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>385.49299999999999</v>
+      </c>
+      <c r="C5">
+        <v>691.93600000000004</v>
+      </c>
+      <c r="D5">
+        <v>458.67899999999997</v>
+      </c>
+      <c r="E5">
+        <v>443.53399999999999</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.38549299999999997</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.691936</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0.45867899999999995</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0.44353399999999998</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>48.186624999999999</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>86.492000000000004</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="6"/>
+        <v>55.441749999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>734.74199999999996</v>
+      </c>
+      <c r="C6">
+        <v>1017.006</v>
+      </c>
+      <c r="D6">
+        <v>920.39700000000005</v>
+      </c>
+      <c r="E6">
+        <v>899.16300000000001</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.73474200000000001</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1.0170060000000001</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0.92039700000000002</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0.89916300000000005</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>45.921374999999998</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>63.562874999999998</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="6"/>
+        <v>56.197687500000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>1244.627</v>
+      </c>
+      <c r="C7">
+        <v>1877.47</v>
+      </c>
+      <c r="D7">
+        <v>1854.912</v>
+      </c>
+      <c r="E7">
+        <v>1701.3510000000001</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1.2446269999999999</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1.87747</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>1.8549120000000001</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>1.7013510000000001</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>38.894593749999999</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>58.670937500000001</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="6"/>
+        <v>53.167218750000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>2027.44</v>
+      </c>
+      <c r="C8">
+        <v>2968.06</v>
+      </c>
+      <c r="D8">
+        <v>3586.23</v>
+      </c>
+      <c r="E8">
+        <v>3650.28</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2.0274399999999999</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>2.9680599999999999</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>3.58623</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>3.6502800000000004</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>31.678750000000001</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>46.375937499999999</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>57.035625000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>3729.8</v>
+      </c>
+      <c r="C9">
+        <v>5255.66</v>
+      </c>
+      <c r="D9">
+        <v>6688.31</v>
+      </c>
+      <c r="E9">
+        <v>6053.14</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>3.7298</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>5.2556599999999998</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>6.6883100000000004</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>6.05314</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>29.139062500000001</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>41.059843749999999</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="6"/>
+        <v>47.290156250000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>256</v>
+      </c>
+      <c r="B10">
+        <v>6974.71</v>
+      </c>
+      <c r="C10">
+        <v>10355.84</v>
+      </c>
+      <c r="D10">
+        <v>11564.65</v>
+      </c>
+      <c r="E10">
+        <v>11301.45</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>6.97471</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>10.355840000000001</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>11.56465</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>11.301450000000001</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>27.2449609375</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>40.452500000000001</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="6"/>
+        <v>44.146289062500003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B83C05C-A7C8-4145-8435-A5739720D793}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="5" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>721033</v>
+      </c>
+      <c r="C2">
+        <v>930621</v>
+      </c>
+      <c r="D2">
+        <v>1327949</v>
+      </c>
+      <c r="E2">
+        <v>901266</v>
+      </c>
+      <c r="F2">
+        <f>B2/A2</f>
+        <v>721033</v>
+      </c>
+      <c r="G2">
+        <f>C2/A2</f>
+        <v>930621</v>
+      </c>
+      <c r="H2">
+        <f>D2/A2</f>
+        <v>1327949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1441929</v>
+      </c>
+      <c r="C3">
+        <v>1818550</v>
+      </c>
+      <c r="D3">
+        <v>2651538</v>
+      </c>
+      <c r="E3">
+        <v>1802377</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F10" si="0">B3/A3</f>
+        <v>720964.5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G10" si="1">C3/A3</f>
+        <v>909275</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H10" si="2">D3/A3</f>
+        <v>1325769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2883721</v>
+      </c>
+      <c r="C4">
+        <v>3609526</v>
+      </c>
+      <c r="D4">
+        <v>5298578</v>
+      </c>
+      <c r="E4">
+        <v>3604626</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>720930.25</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>902381.5</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>1324644.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>5767305</v>
+      </c>
+      <c r="C5">
+        <v>7191478</v>
+      </c>
+      <c r="D5">
+        <v>10592658</v>
+      </c>
+      <c r="E5">
+        <v>7209097</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>720913.125</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>898934.75</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>1324082.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>11534373</v>
+      </c>
+      <c r="C6">
+        <v>14355373</v>
+      </c>
+      <c r="D6">
+        <v>21180809</v>
+      </c>
+      <c r="E6">
+        <v>14418066</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>720898.3125</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>897210.8125</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>1323800.5625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>23068919</v>
+      </c>
+      <c r="C7">
+        <v>28683241</v>
+      </c>
+      <c r="D7">
+        <v>42357198</v>
+      </c>
+      <c r="E7">
+        <v>28836037</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>720903.71875</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>896351.28125</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>1323662.4375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>46137410</v>
+      </c>
+      <c r="C8">
+        <v>57336377</v>
+      </c>
+      <c r="D8">
+        <v>84709889</v>
+      </c>
+      <c r="E8">
+        <v>57671937</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>720897.03125</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>895880.890625</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>1323592.015625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>92275375</v>
+      </c>
+      <c r="C9">
+        <v>114975249</v>
+      </c>
+      <c r="D9">
+        <v>169419733</v>
+      </c>
+      <c r="E9">
+        <v>115343856</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>720901.3671875</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>898244.1328125</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>1323591.6640625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>256</v>
+      </c>
+      <c r="B10">
+        <v>184550613</v>
+      </c>
+      <c r="C10">
+        <v>229410412</v>
+      </c>
+      <c r="D10">
+        <v>338834987</v>
+      </c>
+      <c r="E10">
+        <v>230678557</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>720900.83203125</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>896134.421875</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>1323574.16796875</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CF3E6E-6DAF-493A-9B45-7ABD55D87778}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="18.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>47</v>
+      </c>
+      <c r="C2">
+        <v>418.39800000000002</v>
+      </c>
+      <c r="D2">
+        <f>B2/1000</f>
+        <v>4.7E-2</v>
+      </c>
+      <c r="E2">
+        <f>C2/1000</f>
+        <v>0.41839800000000005</v>
+      </c>
+      <c r="F2">
+        <v>3.2960000000000003E-2</v>
+      </c>
+      <c r="G2">
+        <v>2.8289999999999999E-2</v>
+      </c>
+      <c r="H2">
+        <f>D2+F2</f>
+        <v>7.9960000000000003E-2</v>
+      </c>
+      <c r="I2">
+        <f>E2+G2</f>
+        <v>0.44668800000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>107.45099999999999</v>
+      </c>
+      <c r="C3">
+        <v>464.31</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="0">B3/1000</f>
+        <v>0.10745099999999999</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E10" si="1">C3/1000</f>
+        <v>0.46431</v>
+      </c>
+      <c r="F3">
+        <v>6.4820000000000003E-2</v>
+      </c>
+      <c r="G3">
+        <v>5.2859999999999997E-2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H10" si="2">D3+F3</f>
+        <v>0.17227100000000001</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I10" si="3">E3+G3</f>
+        <v>0.51717000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>197.261</v>
+      </c>
+      <c r="C4">
+        <v>536.77800000000002</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.19726099999999999</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.53677799999999998</v>
+      </c>
+      <c r="F4">
+        <v>0.12659999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.1057</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0.32386099999999995</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>0.64247799999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>385.49299999999999</v>
+      </c>
+      <c r="C5">
+        <v>691.93600000000004</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.38549299999999997</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.691936</v>
+      </c>
+      <c r="F5">
+        <v>0.26829999999999998</v>
+      </c>
+      <c r="G5">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0.65379299999999996</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0.91333600000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>734.74199999999996</v>
+      </c>
+      <c r="C6">
+        <v>1017.006</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.73474200000000001</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>1.0170060000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.50660000000000005</v>
+      </c>
+      <c r="G6">
+        <v>0.4229</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>1.2413419999999999</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>1.4399060000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>1244.627</v>
+      </c>
+      <c r="C7">
+        <v>1877.47</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1.2446269999999999</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1.87747</v>
+      </c>
+      <c r="F7">
+        <v>1.0142</v>
+      </c>
+      <c r="G7">
+        <v>0.8397</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>2.2588270000000001</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>2.7171699999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>2027.44</v>
+      </c>
+      <c r="C8">
+        <v>2968.06</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>2.0274399999999999</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>2.9680599999999999</v>
+      </c>
+      <c r="F8">
+        <v>2.0045999999999999</v>
+      </c>
+      <c r="G8">
+        <v>1.6825000000000001</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>4.0320400000000003</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>4.6505600000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>3729.8</v>
+      </c>
+      <c r="C9">
+        <v>5255.66</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>3.7298</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>5.2556599999999998</v>
+      </c>
+      <c r="F9">
+        <v>4.0810000000000004</v>
+      </c>
+      <c r="G9">
+        <v>3.3948999999999998</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>7.8108000000000004</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>8.6505599999999987</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>256</v>
+      </c>
+      <c r="B10">
+        <v>6974.71</v>
+      </c>
+      <c r="C10">
+        <v>10355.84</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>6.97471</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>10.355840000000001</v>
+      </c>
+      <c r="F10">
+        <v>8.6847700000000003</v>
+      </c>
+      <c r="G10">
+        <v>7.2176</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>15.65948</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>17.573440000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>